--- a/KUP.xlsx
+++ b/KUP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>ИИИ</t>
   </si>
@@ -158,24 +158,15 @@
     <t>Первый семестр</t>
   </si>
   <si>
+    <t>Итого за 1 семестр</t>
+  </si>
+  <si>
+    <t>Второй семестр</t>
+  </si>
+  <si>
     <t>Очная форма обучения</t>
   </si>
   <si>
-    <t>Б1.В.9</t>
-  </si>
-  <si>
-    <t>Компьютерная графика</t>
-  </si>
-  <si>
-    <t>ИМИ-Б-ИТСС-20</t>
-  </si>
-  <si>
-    <t>Итого за 1 семестр</t>
-  </si>
-  <si>
-    <t>Второй семестр</t>
-  </si>
-  <si>
     <t>Б1.Б.14</t>
   </si>
   <si>
@@ -183,15 +174,6 @@
   </si>
   <si>
     <t>ИМИ-БА-ИТСС-18</t>
-  </si>
-  <si>
-    <t>Б1.В.11</t>
-  </si>
-  <si>
-    <t>Объектно-ориентированное программирование</t>
-  </si>
-  <si>
-    <t>ИМИ-БП-ИВТПО-18</t>
   </si>
   <si>
     <t>Итого за 2 семестр</t>
@@ -598,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,271 +931,184 @@
       <c r="AJ9" s="8" t="n"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="11" t="n"/>
+      <c r="C10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
-      <c r="G10" s="8" t="n"/>
-      <c r="H10" s="8" t="n"/>
-      <c r="I10" s="8" t="n"/>
-      <c r="J10" s="8" t="n"/>
-      <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
-      <c r="M10" s="8" t="n"/>
-      <c r="N10" s="8" t="n"/>
-      <c r="O10" s="8" t="n"/>
-      <c r="P10" s="8" t="n"/>
-      <c r="Q10" s="8" t="n"/>
-      <c r="R10" s="8" t="n"/>
-      <c r="S10" s="8" t="n"/>
-      <c r="T10" s="8" t="n"/>
-      <c r="U10" s="8" t="n"/>
-      <c r="V10" s="8" t="n"/>
-      <c r="W10" s="8" t="n"/>
-      <c r="X10" s="8" t="n"/>
-      <c r="Y10" s="8" t="n"/>
-      <c r="Z10" s="8" t="n"/>
-      <c r="AA10" s="8" t="n"/>
-      <c r="AB10" s="8" t="n"/>
-      <c r="AC10" s="8" t="n"/>
-      <c r="AD10" s="8" t="n"/>
-      <c r="AE10" s="8" t="n"/>
-      <c r="AF10" s="8" t="n"/>
-      <c r="AG10" s="8" t="n"/>
-      <c r="AH10" s="8" t="n"/>
-      <c r="AI10" s="8" t="n"/>
-      <c r="AJ10" s="8" t="n"/>
+      <c r="D10" s="11" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="11" t="n"/>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="11" t="n"/>
+      <c r="I10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="8" t="n"/>
-      <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="8" t="n"/>
+      <c r="M11" s="8" t="n"/>
+      <c r="N11" s="8" t="n"/>
       <c r="O11" s="8" t="n"/>
       <c r="P11" s="8" t="n"/>
-      <c r="Q11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8" t="n">
-        <v>10</v>
-      </c>
+      <c r="Q11" s="8" t="n"/>
+      <c r="R11" s="8" t="n"/>
+      <c r="S11" s="8" t="n"/>
+      <c r="T11" s="8" t="n"/>
+      <c r="U11" s="8" t="n"/>
+      <c r="V11" s="8" t="n"/>
+      <c r="W11" s="8" t="n"/>
+      <c r="X11" s="8" t="n"/>
+      <c r="Y11" s="8" t="n"/>
+      <c r="Z11" s="8" t="n"/>
+      <c r="AA11" s="8" t="n"/>
       <c r="AB11" s="8" t="n"/>
-      <c r="AC11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH11" s="8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="8" t="n">
-        <v>26</v>
-      </c>
+      <c r="AC11" s="8" t="n"/>
+      <c r="AD11" s="8" t="n"/>
+      <c r="AE11" s="8" t="n"/>
+      <c r="AF11" s="8" t="n"/>
+      <c r="AG11" s="8" t="n"/>
+      <c r="AH11" s="8" t="n"/>
+      <c r="AI11" s="8" t="n"/>
+      <c r="AJ11" s="8" t="n"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="10" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="11" t="n"/>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="11" t="n"/>
-      <c r="H12" s="11" t="n"/>
-      <c r="I12" s="11">
-        <f>SUM(I10:I11)</f>
-        <v/>
-      </c>
-      <c r="J12" s="11">
-        <f>SUM(J10:J11)</f>
-        <v/>
-      </c>
-      <c r="K12" s="11">
-        <f>SUM(K10:K11)</f>
-        <v/>
-      </c>
-      <c r="L12" s="11">
-        <f>SUM(L10:L11)</f>
-        <v/>
-      </c>
-      <c r="M12" s="11">
-        <f>SUM(M10:M11)</f>
-        <v/>
-      </c>
-      <c r="N12" s="11">
-        <f>SUM(N10:N11)</f>
-        <v/>
-      </c>
-      <c r="O12" s="11">
-        <f>SUM(O10:O11)</f>
-        <v/>
-      </c>
-      <c r="P12" s="11">
-        <f>SUM(P10:P11)</f>
-        <v/>
-      </c>
-      <c r="Q12" s="11">
-        <f>SUM(Q10:Q11)</f>
-        <v/>
-      </c>
-      <c r="R12" s="11">
-        <f>SUM(R10:R11)</f>
-        <v/>
-      </c>
-      <c r="S12" s="11">
-        <f>SUM(S10:S11)</f>
-        <v/>
-      </c>
-      <c r="T12" s="11">
-        <f>SUM(T10:T11)</f>
-        <v/>
-      </c>
-      <c r="U12" s="11">
-        <f>SUM(U10:U11)</f>
-        <v/>
-      </c>
-      <c r="V12" s="11">
-        <f>SUM(V10:V11)</f>
-        <v/>
-      </c>
-      <c r="W12" s="11">
-        <f>SUM(W10:W11)</f>
-        <v/>
-      </c>
-      <c r="X12" s="11">
-        <f>SUM(X10:X11)</f>
-        <v/>
-      </c>
-      <c r="Y12" s="11">
-        <f>SUM(Y10:Y11)</f>
-        <v/>
-      </c>
-      <c r="Z12" s="11" t="n"/>
-      <c r="AA12" s="11">
-        <f>SUM(AA10:AA11)</f>
-        <v/>
-      </c>
-      <c r="AB12" s="11">
-        <f>SUM(AB10:AB11)</f>
-        <v/>
-      </c>
-      <c r="AC12" s="11">
-        <f>SUM(AC10:AC11)</f>
-        <v/>
-      </c>
-      <c r="AD12" s="11">
-        <f>SUM(AD10:AD11)</f>
-        <v/>
-      </c>
-      <c r="AE12" s="11">
-        <f>SUM(AE10:AE11)</f>
-        <v/>
-      </c>
-      <c r="AF12" s="11">
-        <f>SUM(AF10:AF11)</f>
-        <v/>
-      </c>
-      <c r="AG12" s="11">
-        <f>SUM(AG10:AG11)</f>
-        <v/>
-      </c>
-      <c r="AH12" s="11">
-        <f>SUM(AH10:AH11)</f>
-        <v/>
-      </c>
-      <c r="AI12" s="11">
-        <f>SUM(AI10:AI11)</f>
-        <v/>
-      </c>
-      <c r="AJ12" s="11">
-        <f>SUM(AJ10:AJ11)</f>
-        <v/>
-      </c>
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+      <c r="M12" s="8" t="n"/>
+      <c r="N12" s="8" t="n"/>
+      <c r="O12" s="8" t="n"/>
+      <c r="P12" s="8" t="n"/>
+      <c r="Q12" s="8" t="n"/>
+      <c r="R12" s="8" t="n"/>
+      <c r="S12" s="8" t="n"/>
+      <c r="T12" s="8" t="n"/>
+      <c r="U12" s="8" t="n"/>
+      <c r="V12" s="8" t="n"/>
+      <c r="W12" s="8" t="n"/>
+      <c r="X12" s="8" t="n"/>
+      <c r="Y12" s="8" t="n"/>
+      <c r="Z12" s="8" t="n"/>
+      <c r="AA12" s="8" t="n"/>
+      <c r="AB12" s="8" t="n"/>
+      <c r="AC12" s="8" t="n"/>
+      <c r="AD12" s="8" t="n"/>
+      <c r="AE12" s="8" t="n"/>
+      <c r="AF12" s="8" t="n"/>
+      <c r="AG12" s="8" t="n"/>
+      <c r="AH12" s="8" t="n"/>
+      <c r="AI12" s="8" t="n"/>
+      <c r="AJ12" s="8" t="n"/>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="8" t="n"/>
-      <c r="B13" s="8" t="n"/>
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
@@ -1251,602 +1146,380 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="8" t="n"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="8" t="n"/>
+      <c r="F14" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="O14" s="8" t="n"/>
       <c r="P14" s="8" t="n"/>
-      <c r="Q14" s="8" t="n"/>
-      <c r="R14" s="8" t="n"/>
-      <c r="S14" s="8" t="n"/>
-      <c r="T14" s="8" t="n"/>
-      <c r="U14" s="8" t="n"/>
-      <c r="V14" s="8" t="n"/>
-      <c r="W14" s="8" t="n"/>
-      <c r="X14" s="8" t="n"/>
-      <c r="Y14" s="8" t="n"/>
-      <c r="Z14" s="8" t="n"/>
-      <c r="AA14" s="8" t="n"/>
+      <c r="Q14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="T14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="8" t="n">
+        <v>10</v>
+      </c>
       <c r="AB14" s="8" t="n"/>
-      <c r="AC14" s="8" t="n"/>
-      <c r="AD14" s="8" t="n"/>
-      <c r="AE14" s="8" t="n"/>
-      <c r="AF14" s="8" t="n"/>
-      <c r="AG14" s="8" t="n"/>
-      <c r="AH14" s="8" t="n"/>
-      <c r="AI14" s="8" t="n"/>
-      <c r="AJ14" s="8" t="n"/>
+      <c r="AC14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="8" t="n"/>
-      <c r="O15" s="8" t="n"/>
-      <c r="P15" s="8" t="n"/>
-      <c r="Q15" s="8" t="n"/>
-      <c r="R15" s="8" t="n"/>
-      <c r="S15" s="8" t="n"/>
-      <c r="T15" s="8" t="n"/>
-      <c r="U15" s="8" t="n"/>
-      <c r="V15" s="8" t="n"/>
-      <c r="W15" s="8" t="n"/>
-      <c r="X15" s="8" t="n"/>
-      <c r="Y15" s="8" t="n"/>
-      <c r="Z15" s="8" t="n"/>
-      <c r="AA15" s="8" t="n"/>
-      <c r="AB15" s="8" t="n"/>
-      <c r="AC15" s="8" t="n"/>
-      <c r="AD15" s="8" t="n"/>
-      <c r="AE15" s="8" t="n"/>
-      <c r="AF15" s="8" t="n"/>
-      <c r="AG15" s="8" t="n"/>
-      <c r="AH15" s="8" t="n"/>
-      <c r="AI15" s="8" t="n"/>
-      <c r="AJ15" s="8" t="n"/>
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="n"/>
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="11" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11">
+        <f>SUM(I13:I14)</f>
+        <v/>
+      </c>
+      <c r="J15" s="11">
+        <f>SUM(J13:J14)</f>
+        <v/>
+      </c>
+      <c r="K15" s="11">
+        <f>SUM(K13:K14)</f>
+        <v/>
+      </c>
+      <c r="L15" s="11">
+        <f>SUM(L13:L14)</f>
+        <v/>
+      </c>
+      <c r="M15" s="11">
+        <f>SUM(M13:M14)</f>
+        <v/>
+      </c>
+      <c r="N15" s="11">
+        <f>SUM(N13:N14)</f>
+        <v/>
+      </c>
+      <c r="O15" s="11">
+        <f>SUM(O13:O14)</f>
+        <v/>
+      </c>
+      <c r="P15" s="11">
+        <f>SUM(P13:P14)</f>
+        <v/>
+      </c>
+      <c r="Q15" s="11">
+        <f>SUM(Q13:Q14)</f>
+        <v/>
+      </c>
+      <c r="R15" s="11">
+        <f>SUM(R13:R14)</f>
+        <v/>
+      </c>
+      <c r="S15" s="11">
+        <f>SUM(S13:S14)</f>
+        <v/>
+      </c>
+      <c r="T15" s="11">
+        <f>SUM(T13:T14)</f>
+        <v/>
+      </c>
+      <c r="U15" s="11">
+        <f>SUM(U13:U14)</f>
+        <v/>
+      </c>
+      <c r="V15" s="11">
+        <f>SUM(V13:V14)</f>
+        <v/>
+      </c>
+      <c r="W15" s="11">
+        <f>SUM(W13:W14)</f>
+        <v/>
+      </c>
+      <c r="X15" s="11">
+        <f>SUM(X13:X14)</f>
+        <v/>
+      </c>
+      <c r="Y15" s="11">
+        <f>SUM(Y13:Y14)</f>
+        <v/>
+      </c>
+      <c r="Z15" s="11" t="n"/>
+      <c r="AA15" s="11">
+        <f>SUM(AA13:AA14)</f>
+        <v/>
+      </c>
+      <c r="AB15" s="11">
+        <f>SUM(AB13:AB14)</f>
+        <v/>
+      </c>
+      <c r="AC15" s="11">
+        <f>SUM(AC13:AC14)</f>
+        <v/>
+      </c>
+      <c r="AD15" s="11">
+        <f>SUM(AD13:AD14)</f>
+        <v/>
+      </c>
+      <c r="AE15" s="11">
+        <f>SUM(AE13:AE14)</f>
+        <v/>
+      </c>
+      <c r="AF15" s="11">
+        <f>SUM(AF13:AF14)</f>
+        <v/>
+      </c>
+      <c r="AG15" s="11">
+        <f>SUM(AG13:AG14)</f>
+        <v/>
+      </c>
+      <c r="AH15" s="11">
+        <f>SUM(AH13:AH14)</f>
+        <v/>
+      </c>
+      <c r="AI15" s="11">
+        <f>SUM(AI13:AI14)</f>
+        <v/>
+      </c>
+      <c r="AJ15" s="11">
+        <f>SUM(AJ13:AJ14)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="11" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="11" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11">
+        <f>I10 + I15</f>
+        <v/>
+      </c>
+      <c r="J16" s="11">
+        <f>J10 + J15</f>
+        <v/>
+      </c>
+      <c r="K16" s="11">
+        <f>K10 + K15</f>
+        <v/>
+      </c>
+      <c r="L16" s="11">
+        <f>L10 + L15</f>
+        <v/>
+      </c>
+      <c r="M16" s="11">
+        <f>M10 + M15</f>
+        <v/>
+      </c>
+      <c r="N16" s="11">
+        <f>N10 + N15</f>
+        <v/>
+      </c>
+      <c r="O16" s="11">
+        <f>O10 + O15</f>
+        <v/>
+      </c>
+      <c r="P16" s="11">
+        <f>P10 + P15</f>
+        <v/>
+      </c>
+      <c r="Q16" s="11">
+        <f>Q10 + Q15</f>
+        <v/>
+      </c>
+      <c r="R16" s="11">
+        <f>R10 + R15</f>
+        <v/>
+      </c>
+      <c r="S16" s="11">
+        <f>S10 + S15</f>
+        <v/>
+      </c>
+      <c r="T16" s="11">
+        <f>T10 + T15</f>
+        <v/>
+      </c>
+      <c r="U16" s="11">
+        <f>U10 + U15</f>
+        <v/>
+      </c>
+      <c r="V16" s="11">
+        <f>V10 + V15</f>
+        <v/>
+      </c>
+      <c r="W16" s="11">
+        <f>W10 + W15</f>
+        <v/>
+      </c>
+      <c r="X16" s="11">
+        <f>X10 + X15</f>
+        <v/>
+      </c>
+      <c r="Y16" s="11">
+        <f>Y10 + Y15</f>
+        <v/>
+      </c>
+      <c r="Z16" s="11" t="n"/>
+      <c r="AA16" s="11">
+        <f>AA10 + AA15</f>
+        <v/>
+      </c>
+      <c r="AB16" s="11">
+        <f>AB10 + AB15</f>
+        <v/>
+      </c>
+      <c r="AC16" s="11">
+        <f>AC10 + AC15</f>
+        <v/>
+      </c>
+      <c r="AD16" s="11">
+        <f>AD10 + AD15</f>
+        <v/>
+      </c>
+      <c r="AE16" s="11">
+        <f>AE10 + AE15</f>
+        <v/>
+      </c>
+      <c r="AF16" s="11">
+        <f>AF10 + AF15</f>
+        <v/>
+      </c>
+      <c r="AG16" s="11">
+        <f>AG10 + AG15</f>
+        <v/>
+      </c>
+      <c r="AH16" s="11">
+        <f>AH10 + AH15</f>
+        <v/>
+      </c>
+      <c r="AI16" s="11">
+        <f>AI10 + AI15</f>
+        <v/>
+      </c>
+      <c r="AJ16" s="11">
+        <f>AJ10 + AJ15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="C18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="8" t="n"/>
-      <c r="P16" s="8" t="n"/>
-      <c r="Q16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="8" t="n"/>
-      <c r="AC16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
-      <c r="G17" s="8" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
-      <c r="J17" s="8" t="n"/>
-      <c r="K17" s="8" t="n"/>
-      <c r="L17" s="8" t="n"/>
-      <c r="M17" s="8" t="n"/>
-      <c r="N17" s="8" t="n"/>
-      <c r="O17" s="8" t="n"/>
-      <c r="P17" s="8" t="n"/>
-      <c r="Q17" s="8" t="n"/>
-      <c r="R17" s="8" t="n"/>
-      <c r="S17" s="8" t="n"/>
-      <c r="T17" s="8" t="n"/>
-      <c r="U17" s="8" t="n"/>
-      <c r="V17" s="8" t="n"/>
-      <c r="W17" s="8" t="n"/>
-      <c r="X17" s="8" t="n"/>
-      <c r="Y17" s="8" t="n"/>
-      <c r="Z17" s="8" t="n"/>
-      <c r="AA17" s="8" t="n"/>
-      <c r="AB17" s="8" t="n"/>
-      <c r="AC17" s="8" t="n"/>
-      <c r="AD17" s="8" t="n"/>
-      <c r="AE17" s="8" t="n"/>
-      <c r="AF17" s="8" t="n"/>
-      <c r="AG17" s="8" t="n"/>
-      <c r="AH17" s="8" t="n"/>
-      <c r="AI17" s="8" t="n"/>
-      <c r="AJ17" s="8" t="n"/>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="O18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="R18" s="13" t="n"/>
+      <c r="S18" s="13" t="n"/>
+      <c r="T18" s="13" t="n"/>
+      <c r="U18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="M18" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="8" t="n"/>
-      <c r="P18" s="8" t="n"/>
-      <c r="Q18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB18" s="8" t="n"/>
-      <c r="AC18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH18" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="11" t="s">
+      <c r="V18" s="13" t="n"/>
+      <c r="W18" s="13" t="n"/>
+      <c r="AA18" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="11" t="n"/>
-      <c r="E19" s="11" t="n"/>
-      <c r="F19" s="11" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="11">
-        <f>SUM(I15:I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="11">
-        <f>SUM(J15:J18)</f>
-        <v/>
-      </c>
-      <c r="K19" s="11">
-        <f>SUM(K15:K18)</f>
-        <v/>
-      </c>
-      <c r="L19" s="11">
-        <f>SUM(L15:L18)</f>
-        <v/>
-      </c>
-      <c r="M19" s="11">
-        <f>SUM(M15:M18)</f>
-        <v/>
-      </c>
-      <c r="N19" s="11">
-        <f>SUM(N15:N18)</f>
-        <v/>
-      </c>
-      <c r="O19" s="11">
-        <f>SUM(O15:O18)</f>
-        <v/>
-      </c>
-      <c r="P19" s="11">
-        <f>SUM(P15:P18)</f>
-        <v/>
-      </c>
-      <c r="Q19" s="11">
-        <f>SUM(Q15:Q18)</f>
-        <v/>
-      </c>
-      <c r="R19" s="11">
-        <f>SUM(R15:R18)</f>
-        <v/>
-      </c>
-      <c r="S19" s="11">
-        <f>SUM(S15:S18)</f>
-        <v/>
-      </c>
-      <c r="T19" s="11">
-        <f>SUM(T15:T18)</f>
-        <v/>
-      </c>
-      <c r="U19" s="11">
-        <f>SUM(U15:U18)</f>
-        <v/>
-      </c>
-      <c r="V19" s="11">
-        <f>SUM(V15:V18)</f>
-        <v/>
-      </c>
-      <c r="W19" s="11">
-        <f>SUM(W15:W18)</f>
-        <v/>
-      </c>
-      <c r="X19" s="11">
-        <f>SUM(X15:X18)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="11">
-        <f>SUM(Y15:Y18)</f>
-        <v/>
-      </c>
-      <c r="Z19" s="11" t="n"/>
-      <c r="AA19" s="11">
-        <f>SUM(AA15:AA18)</f>
-        <v/>
-      </c>
-      <c r="AB19" s="11">
-        <f>SUM(AB15:AB18)</f>
-        <v/>
-      </c>
-      <c r="AC19" s="11">
-        <f>SUM(AC15:AC18)</f>
-        <v/>
-      </c>
-      <c r="AD19" s="11">
-        <f>SUM(AD15:AD18)</f>
-        <v/>
-      </c>
-      <c r="AE19" s="11">
-        <f>SUM(AE15:AE18)</f>
-        <v/>
-      </c>
-      <c r="AF19" s="11">
-        <f>SUM(AF15:AF18)</f>
-        <v/>
-      </c>
-      <c r="AG19" s="11">
-        <f>SUM(AG15:AG18)</f>
-        <v/>
-      </c>
-      <c r="AH19" s="11">
-        <f>SUM(AH15:AH18)</f>
-        <v/>
-      </c>
-      <c r="AI19" s="11">
-        <f>SUM(AI15:AI18)</f>
-        <v/>
-      </c>
-      <c r="AJ19" s="11">
-        <f>SUM(AJ15:AJ18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="10" t="n"/>
-      <c r="B20" s="11" t="n"/>
-      <c r="C20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="11" t="n"/>
-      <c r="E20" s="11" t="n"/>
-      <c r="F20" s="11" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="11">
-        <f>I12 + I19</f>
-        <v/>
-      </c>
-      <c r="J20" s="11">
-        <f>J12 + J19</f>
-        <v/>
-      </c>
-      <c r="K20" s="11">
-        <f>K12 + K19</f>
-        <v/>
-      </c>
-      <c r="L20" s="11">
-        <f>L12 + L19</f>
-        <v/>
-      </c>
-      <c r="M20" s="11">
-        <f>M12 + M19</f>
-        <v/>
-      </c>
-      <c r="N20" s="11">
-        <f>N12 + N19</f>
-        <v/>
-      </c>
-      <c r="O20" s="11">
-        <f>O12 + O19</f>
-        <v/>
-      </c>
-      <c r="P20" s="11">
-        <f>P12 + P19</f>
-        <v/>
-      </c>
-      <c r="Q20" s="11">
-        <f>Q12 + Q19</f>
-        <v/>
-      </c>
-      <c r="R20" s="11">
-        <f>R12 + R19</f>
-        <v/>
-      </c>
-      <c r="S20" s="11">
-        <f>S12 + S19</f>
-        <v/>
-      </c>
-      <c r="T20" s="11">
-        <f>T12 + T19</f>
-        <v/>
-      </c>
-      <c r="U20" s="11">
-        <f>U12 + U19</f>
-        <v/>
-      </c>
-      <c r="V20" s="11">
-        <f>V12 + V19</f>
-        <v/>
-      </c>
-      <c r="W20" s="11">
-        <f>W12 + W19</f>
-        <v/>
-      </c>
-      <c r="X20" s="11">
-        <f>X12 + X19</f>
-        <v/>
-      </c>
-      <c r="Y20" s="11">
-        <f>Y12 + Y19</f>
-        <v/>
-      </c>
-      <c r="Z20" s="11" t="n"/>
-      <c r="AA20" s="11">
-        <f>AA12 + AA19</f>
-        <v/>
-      </c>
-      <c r="AB20" s="11">
-        <f>AB12 + AB19</f>
-        <v/>
-      </c>
-      <c r="AC20" s="11">
-        <f>AC12 + AC19</f>
-        <v/>
-      </c>
-      <c r="AD20" s="11">
-        <f>AD12 + AD19</f>
-        <v/>
-      </c>
-      <c r="AE20" s="11">
-        <f>AE12 + AE19</f>
-        <v/>
-      </c>
-      <c r="AF20" s="11">
-        <f>AF12 + AF19</f>
-        <v/>
-      </c>
-      <c r="AG20" s="11">
-        <f>AG12 + AG19</f>
-        <v/>
-      </c>
-      <c r="AH20" s="11">
-        <f>AH12 + AH19</f>
-        <v/>
-      </c>
-      <c r="AI20" s="11">
-        <f>AI12 + AI19</f>
-        <v/>
-      </c>
-      <c r="AJ20" s="11">
-        <f>AJ12 + AJ19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
-      <c r="C22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="R22" s="13" t="n"/>
-      <c r="S22" s="13" t="n"/>
-      <c r="T22" s="13" t="n"/>
-      <c r="U22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="V22" s="13" t="n"/>
-      <c r="W22" s="13" t="n"/>
-      <c r="AA22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB22" s="13" t="n"/>
-      <c r="AC22" s="13" t="n"/>
-      <c r="AD22" s="13" t="n"/>
-      <c r="AE22" s="13" t="n"/>
+      <c r="AB18" s="13" t="n"/>
+      <c r="AC18" s="13" t="n"/>
+      <c r="AD18" s="13" t="n"/>
+      <c r="AE18" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="30">
     <mergeCell ref="A2:AJ2"/>
     <mergeCell ref="A3:AJ3"/>
     <mergeCell ref="A6:A7"/>
@@ -1875,10 +1548,8 @@
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="B9:AJ9"/>
-    <mergeCell ref="B10:AJ10"/>
-    <mergeCell ref="B14:AJ14"/>
-    <mergeCell ref="B15:AJ15"/>
-    <mergeCell ref="B17:AJ17"/>
+    <mergeCell ref="B12:AJ12"/>
+    <mergeCell ref="B13:AJ13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
